--- a/data/inflation_expectations.xlsx
+++ b/data/inflation_expectations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Desktop/Folder/UP/2024-I/IE2/bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Documents/GitHub/forecasting_inflation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CF3BBC-E7E0-1947-92A5-62DDC5E91E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{742F0BC9-E3CC-8E43-A082-3B2AD149E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16340" xr2:uid="{06D9E2F6-CFE9-8643-BAF4-FAA0EEE61184}"/>
+    <workbookView xWindow="1080" yWindow="1140" windowWidth="27640" windowHeight="16340" xr2:uid="{06D9E2F6-CFE9-8643-BAF4-FAA0EEE61184}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
